--- a/uploads/ProyectoNuevo/ProyectoNuevo_CambioLinea.xlsx
+++ b/uploads/ProyectoNuevo/ProyectoNuevo_CambioLinea.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ProyectoNuevo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_698A27352830928F57807531E3A4D34313001374" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1A6F10-E08A-4918-923C-D0F79F51E7BF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -29,13 +35,19 @@
   </si>
   <si>
     <t>Copia de Cambio de Linea de Impulsion agua fresca Planta Matta</t>
+  </si>
+  <si>
+    <t>porcentaje_utilidades</t>
+  </si>
+  <si>
+    <t>porcentaje_contingencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,13 +95,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -98,13 +124,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +176,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -176,6 +210,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -210,9 +245,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -385,14 +421,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,8 +445,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -412,6 +461,9 @@
       </c>
       <c r="C2">
         <v>2</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/ProyectoNuevo/ProyectoNuevo_CambioLinea.xlsx
+++ b/uploads/ProyectoNuevo/ProyectoNuevo_CambioLinea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ProyectoNuevo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_698A27352830928F57807531E3A4D34313001374" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1A6F10-E08A-4918-923C-D0F79F51E7BF}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_698A27352830928F57807531E3A4D34313001374" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0E8BB7B-79C5-437E-B9AC-2CA3C5E21B7D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,14 +115,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -133,6 +163,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A58BADDA-4001-4435-832C-A56788E02C89}" name="Tabla1" displayName="Tabla1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E2" xr:uid="{A58BADDA-4001-4435-832C-A56788E02C89}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E69C0088-8491-48BA-8F81-AD2662938DD1}" name="id"/>
+    <tableColumn id="2" xr3:uid="{4BF1BB18-74F7-48C6-9501-CC3AA31ED5C2}" name="nombre"/>
+    <tableColumn id="3" xr3:uid="{CD3406F6-E69A-4293-8948-5712205ACE99}" name="proyecto_relacionado"/>
+    <tableColumn id="4" xr3:uid="{8C5B53C5-9188-40B5-97D4-B19F993452A2}" name="porcentaje_utilidades"/>
+    <tableColumn id="5" xr3:uid="{7A033AB7-E8FA-4F81-BF3A-01AA713AAD77}" name="porcentaje_contingencia"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,14 +469,16 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="24.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -468,5 +514,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>